--- a/test/B.xlsx
+++ b/test/B.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rian Aristio\.julia\dev\Potato\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDF3E04-C2F6-4405-BEE0-7E209C7D683B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="vehicles" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="periods" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="demands" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="vertices" sheetId="1" r:id="rId1"/>
+    <sheet name="vehicles" sheetId="2" r:id="rId2"/>
+    <sheet name="demands" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,148 +28,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Indonesia Aceh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Indonesia Lhokseumawe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Indonesia Sumatera Utara (Medan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Indonesia Sibolga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Indonesia Pematang Siantar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q (CT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varq Rp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varct Rp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vardq Rp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vardct Rp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vard Rp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fix Rp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">truck A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">truck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 0 0 0 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 2 3 4 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>INVL</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>Bank Indonesia Aceh</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Bank Indonesia Lhokseumawe</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>Bank Indonesia Sumatera Utara (Medan)</t>
+  </si>
+  <si>
+    <t>Bank Indonesia Sibolga</t>
+  </si>
+  <si>
+    <t>Bank Indonesia Pematang Siantar</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>Q (CT)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>varq Rp</t>
+  </si>
+  <si>
+    <t>varct Rp</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>vardq Rp</t>
+  </si>
+  <si>
+    <t>vardct Rp</t>
+  </si>
+  <si>
+    <t>vl</t>
+  </si>
+  <si>
+    <t>vard Rp</t>
+  </si>
+  <si>
+    <t>vx</t>
+  </si>
+  <si>
+    <t>fix Rp</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>truck A</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>2 0 0 0 0</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,19 +211,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,14 +233,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -222,105 +252,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
+    <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma [0] 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Comma 10" xfId="20"/>
-    <cellStyle name="Comma [0] 2" xfId="21"/>
-    <cellStyle name="Comma [0] 2 2" xfId="22"/>
-    <cellStyle name="Comma [0] 3" xfId="23"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -379,115 +344,416 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K6" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0">
+  <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="type"/>
-    <tableColumn id="4" name="x"/>
-    <tableColumn id="5" name="y"/>
-    <tableColumn id="6" name="MAX"/>
-    <tableColumn id="7" name="port"/>
-    <tableColumn id="8" name="stat"/>
-    <tableColumn id="9" name="h"/>
-    <tableColumn id="10" name="MIN"/>
-    <tableColumn id="11" name="START"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="x"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="y"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MAX"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="port"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="stat"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="h"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MIN"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="START"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:R2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:R2" totalsRowShown="0">
+  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="type"/>
-    <tableColumn id="4" name="BP"/>
-    <tableColumn id="5" name="cover"/>
-    <tableColumn id="6" name="CON"/>
-    <tableColumn id="7" name="Q (CT)"/>
-    <tableColumn id="8" name="Q"/>
-    <tableColumn id="9" name="varq Rp"/>
-    <tableColumn id="10" name="varct Rp"/>
-    <tableColumn id="11" name="fd"/>
-    <tableColumn id="12" name="vardq Rp"/>
-    <tableColumn id="13" name="vardct Rp"/>
-    <tableColumn id="14" name="vl"/>
-    <tableColumn id="15" name="vard Rp"/>
-    <tableColumn id="16" name="vx"/>
-    <tableColumn id="17" name="fix Rp"/>
-    <tableColumn id="18" name="fp"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="BP"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="cover"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CON"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Q (CT)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Q"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="varq Rp"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="varct Rp"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="fd"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="vardq Rp"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="vardct Rp"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="vl"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="vard Rp"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="vx"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="fix Rp"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="fp"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table7" displayName="Table7" ref="A1:B2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="T"/>
-    <tableColumn id="2" name="start"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table9" displayName="Table9" ref="A1:O47" totalsRowShown="0">
+  <autoFilter ref="A1:O47" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="point"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Column1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Column2"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table9" displayName="Table9" ref="A1:O47" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:O47"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="point"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-  </tableColumns>
-</table>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="7" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.58"/>
+    <col min="1" max="1" width="4.83984375" customWidth="1"/>
+    <col min="2" max="2" width="46.41796875" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" customWidth="1"/>
+    <col min="7" max="8" width="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.578125" customWidth="1"/>
+    <col min="11" max="11" width="10.68359375" customWidth="1"/>
+    <col min="12" max="12" width="7.26171875" customWidth="1"/>
+    <col min="13" max="13" width="10.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,524 +793,475 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>95.3168672</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>5.5576385</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="D2">
+        <v>95.316867200000004</v>
+      </c>
+      <c r="E2">
+        <v>5.5576385000000004</v>
+      </c>
+      <c r="F2" s="2">
         <v>999999</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>-999999</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="4">
         <v>999999</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>882</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="4">
         <v>3915</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>97.1411612</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>5.1823794</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="D3">
+        <v>97.141161199999999</v>
+      </c>
+      <c r="E3">
+        <v>5.1823794000000003</v>
+      </c>
+      <c r="F3" s="5">
         <v>5000</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>690</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>6192</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>98.6770692</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.5907934</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="D4">
+        <v>98.677069200000005</v>
+      </c>
+      <c r="E4">
+        <v>3.5907933999999999</v>
+      </c>
+      <c r="F4" s="2">
         <v>3000</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2825</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>7170</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>98.77534</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>1.7474852</v>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="E5">
+        <v>1.7474852000000001</v>
+      </c>
+      <c r="F5" s="5">
         <v>2000</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>935</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>4411</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>99.0582705</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.9556307</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="D6">
+        <v>99.058270500000006</v>
+      </c>
+      <c r="E6">
+        <v>2.9556306999999999</v>
+      </c>
+      <c r="F6" s="2">
         <v>4000</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>369</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>4948</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="5"/>
       <c r="I7" s="3"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="5"/>
       <c r="I8" s="3"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="5"/>
       <c r="I9" s="3"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="5"/>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="5"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" s="5"/>
       <c r="I12" s="3"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="5"/>
       <c r="I13" s="3"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" s="5"/>
       <c r="I14" s="3"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="5"/>
       <c r="I15" s="3"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="2"/>
       <c r="I16" s="3"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="5"/>
       <c r="I17" s="3"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="5"/>
       <c r="I19" s="3"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" s="5"/>
       <c r="I21" s="3"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" s="2"/>
       <c r="I22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="5"/>
       <c r="I23" s="3"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="2"/>
       <c r="I24" s="3"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="5"/>
       <c r="I25" s="3"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="5"/>
       <c r="I27" s="3"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="2"/>
       <c r="I28" s="3"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="5"/>
       <c r="I29" s="3"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="2"/>
       <c r="I30" s="3"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="5"/>
       <c r="I31" s="3"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="2"/>
       <c r="I32" s="3"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="5"/>
       <c r="I33" s="3"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="2"/>
       <c r="I34" s="3"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="5"/>
       <c r="I35" s="3"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="2"/>
       <c r="I36" s="3"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="5"/>
       <c r="I37" s="3"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="2"/>
       <c r="I38" s="3"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="5"/>
       <c r="I39" s="3"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="2"/>
       <c r="I40" s="3"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="5"/>
       <c r="I41" s="3"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" s="2"/>
       <c r="I42" s="3"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="5"/>
       <c r="I43" s="3"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" s="2"/>
       <c r="I44" s="3"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" s="5"/>
       <c r="I45" s="3"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F46" s="2"/>
       <c r="I46" s="3"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F47" s="5"/>
       <c r="I47" s="3"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.48"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="0.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col min="1" max="1" width="4.83984375" customWidth="1"/>
+    <col min="2" max="2" width="26.1015625" customWidth="1"/>
+    <col min="3" max="3" width="7.26171875" customWidth="1"/>
+    <col min="4" max="4" width="8.47265625" customWidth="1"/>
+    <col min="6" max="6" width="7.26171875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.1015625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="10.26171875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.578125" customWidth="1"/>
+    <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.41796875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83984375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.15625" customWidth="1"/>
+    <col min="17" max="17" width="7.15625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.578125" customWidth="1"/>
+    <col min="19" max="19" width="11.3125" customWidth="1"/>
+    <col min="1024" max="1024" width="11.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,65 +1317,65 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1000</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>5000</v>
       </c>
-      <c r="I2" s="6" t="n">
-        <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
+      <c r="I2" s="6">
+        <f>Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>12000000</v>
       </c>
-      <c r="K2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7" t="n">
-        <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <f>Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="6">
         <v>86000</v>
       </c>
-      <c r="N2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6" t="n">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
         <v>10</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="P2" s="7">
         <v>1</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="6">
         <v>10</v>
       </c>
-      <c r="R2" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
@@ -1170,7 +1387,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
@@ -1182,7 +1399,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
@@ -1194,7 +1411,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -1206,7 +1423,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -1218,7 +1435,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1230,7 +1447,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -1242,7 +1459,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1254,7 +1471,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1266,7 +1483,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1278,7 +1495,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1290,7 +1507,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -1302,7 +1519,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -1314,7 +1531,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -1326,7 +1543,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -1338,7 +1555,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -1350,7 +1567,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -1362,7 +1579,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -1374,7 +1591,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -1386,7 +1603,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
@@ -1398,7 +1615,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="7"/>
@@ -1410,7 +1627,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="7"/>
@@ -1422,7 +1639,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="7"/>
@@ -1434,7 +1651,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="7"/>
@@ -1446,7 +1663,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
@@ -1458,7 +1675,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
@@ -1470,7 +1687,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="7"/>
@@ -1482,7 +1699,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="7"/>
@@ -1494,7 +1711,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
@@ -1506,7 +1723,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="7"/>
@@ -1518,7 +1735,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="7"/>
@@ -1530,7 +1747,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="7"/>
@@ -1542,7 +1759,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
@@ -1554,7 +1771,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="7"/>
@@ -1566,7 +1783,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -1578,7 +1795,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="7"/>
@@ -1590,7 +1807,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="7"/>
@@ -1602,7 +1819,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="7"/>
@@ -1614,7 +1831,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="7"/>
@@ -1626,7 +1843,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="7"/>
@@ -1638,7 +1855,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="7"/>
@@ -1650,7 +1867,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -1662,7 +1879,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="7"/>
@@ -1674,7 +1891,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="7"/>
@@ -1686,7 +1903,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="7"/>
@@ -1698,7 +1915,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
@@ -1710,7 +1927,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="7"/>
@@ -1722,7 +1939,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="7"/>
@@ -1734,7 +1951,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="7"/>
@@ -1746,7 +1963,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
@@ -1758,7 +1975,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="7"/>
@@ -1770,7 +1987,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="7"/>
@@ -1782,7 +1999,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="7"/>
@@ -1794,7 +2011,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -1806,7 +2023,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="7"/>
@@ -1818,7 +2035,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="7"/>
@@ -1830,7 +2047,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="7"/>
@@ -1842,7 +2059,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="7"/>
@@ -1854,7 +2071,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="7"/>
@@ -1866,7 +2083,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="7"/>
@@ -1878,7 +2095,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -1897,7 +2114,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -1916,7 +2133,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -1935,7 +2152,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -1954,7 +2171,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -1973,7 +2190,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -1992,7 +2209,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -2011,7 +2228,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -2030,7 +2247,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
       <c r="D71" s="11"/>
@@ -2049,7 +2266,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2068,7 +2285,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2087,7 +2304,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="7"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2106,7 +2323,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2125,7 +2342,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="7"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2144,7 +2361,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2163,7 +2380,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="7"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2182,7 +2399,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2201,7 +2418,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2220,7 +2437,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="7"/>
@@ -2232,7 +2449,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="7"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="7"/>
@@ -2244,7 +2461,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="7"/>
@@ -2256,686 +2473,292 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="7"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.1015625" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" customWidth="1"/>
+    <col min="15" max="15" width="7.41796875" customWidth="1"/>
+    <col min="17" max="17" width="9.26171875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4">
+        <v>3000</v>
+      </c>
+      <c r="I4">
+        <v>3000</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="K4">
+        <v>3000</v>
+      </c>
+      <c r="L4">
+        <v>3000</v>
+      </c>
+      <c r="M4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <v>2000</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="M5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <v>1500</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>1500</v>
+      </c>
+      <c r="H6">
+        <v>1500</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>1500</v>
+      </c>
+      <c r="K6">
+        <v>1500</v>
+      </c>
+      <c r="L6">
+        <v>1500</v>
+      </c>
+      <c r="M6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q16" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q147"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.29"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011179AFD6B249C47A3A85EFC187CA11D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04becffab9a2dbef63dcf0df7936b7a2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f42fe88e-f768-4626-a6cf-a26f783e7616" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="518f2508b308e1d4741e71cb3528ee4b" ns3:_="">
-    <xsd:import namespace="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f42fe88e-f768-4626-a6cf-a26f783e7616" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9F2A54B-1AF4-4DDF-9BD7-7F5345D3E7CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4761B902-1DB3-430A-B37B-14956FF5DCEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1681FE4-2173-40A4-B375-DA2284BB9929}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test/B.xlsx
+++ b/test/B.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rian Aristio\.julia\dev\Potato\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDF3E04-C2F6-4405-BEE0-7E209C7D683B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="vertices" sheetId="1" r:id="rId1"/>
-    <sheet name="vehicles" sheetId="2" r:id="rId2"/>
-    <sheet name="demands" sheetId="4" r:id="rId3"/>
+    <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="vehicles" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="periods" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="demands" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,181 +23,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>INVL</t>
-  </si>
-  <si>
-    <t>ROM</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Aceh</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Lhokseumawe</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sumatera Utara (Medan)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sibolga</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Pematang Siantar</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>Q (CT)</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>varq Rp</t>
-  </si>
-  <si>
-    <t>varct Rp</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>vardq Rp</t>
-  </si>
-  <si>
-    <t>vardct Rp</t>
-  </si>
-  <si>
-    <t>vl</t>
-  </si>
-  <si>
-    <t>vard Rp</t>
-  </si>
-  <si>
-    <t>vx</t>
-  </si>
-  <si>
-    <t>fix Rp</t>
-  </si>
-  <si>
-    <t>fp</t>
-  </si>
-  <si>
-    <t>truck A</t>
-  </si>
-  <si>
-    <t>truck</t>
-  </si>
-  <si>
-    <t>2 0 0 0 0</t>
-  </si>
-  <si>
-    <t>1 2 3 4 5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Indonesia Aceh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Indonesia Lhokseumawe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Indonesia Sumatera Utara (Medan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Indonesia Sibolga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Indonesia Pematang Siantar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q (CT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varq Rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varct Rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vardq Rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vardct Rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vard Rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix Rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truck A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 0 0 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 3 4 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,11 +173,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,14 +203,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin">
@@ -252,40 +222,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="24">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Comma [0] 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Comma 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma 10" xfId="20"/>
+    <cellStyle name="Comma [0] 2" xfId="21"/>
+    <cellStyle name="Comma [0] 2 2" xfId="22"/>
+    <cellStyle name="Comma [0] 3" xfId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -344,416 +379,115 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0">
-  <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K6" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:K6"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="x"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="y"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MAX"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="port"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="stat"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="h"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MIN"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="START"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="type"/>
+    <tableColumn id="4" name="x"/>
+    <tableColumn id="5" name="y"/>
+    <tableColumn id="6" name="MAX"/>
+    <tableColumn id="7" name="port"/>
+    <tableColumn id="8" name="stat"/>
+    <tableColumn id="9" name="h"/>
+    <tableColumn id="10" name="MIN"/>
+    <tableColumn id="11" name="START"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:R2" totalsRowShown="0">
-  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:R2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="BP"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="cover"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CON"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Q (CT)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Q"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="varq Rp"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="varct Rp"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="fd"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="vardq Rp"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="vardct Rp"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="vl"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="vard Rp"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="vx"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="fix Rp"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="fp"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="type"/>
+    <tableColumn id="4" name="BP"/>
+    <tableColumn id="5" name="cover"/>
+    <tableColumn id="6" name="CON"/>
+    <tableColumn id="7" name="Q (CT)"/>
+    <tableColumn id="8" name="Q"/>
+    <tableColumn id="9" name="varq Rp"/>
+    <tableColumn id="10" name="varct Rp"/>
+    <tableColumn id="11" name="fd"/>
+    <tableColumn id="12" name="vardq Rp"/>
+    <tableColumn id="13" name="vardct Rp"/>
+    <tableColumn id="14" name="vl"/>
+    <tableColumn id="15" name="vard Rp"/>
+    <tableColumn id="16" name="vx"/>
+    <tableColumn id="17" name="fix Rp"/>
+    <tableColumn id="18" name="fp"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table9" displayName="Table9" ref="A1:O47" totalsRowShown="0">
-  <autoFilter ref="A1:O47" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="point"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="9"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="11"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Column1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Column2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table7" displayName="Table7" ref="A1:B2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="T"/>
+    <tableColumn id="2" name="start"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table9" displayName="Table9" ref="A1:O47" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:O47"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="point"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+  </tableColumns>
+</table>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.83984375" customWidth="1"/>
-    <col min="2" max="2" width="46.41796875" customWidth="1"/>
-    <col min="3" max="3" width="9.83984375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" customWidth="1"/>
-    <col min="7" max="8" width="7" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.578125" customWidth="1"/>
-    <col min="11" max="11" width="10.68359375" customWidth="1"/>
-    <col min="12" max="12" width="7.26171875" customWidth="1"/>
-    <col min="13" max="13" width="10.578125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="7" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,475 +527,524 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>95.316867200000004</v>
-      </c>
-      <c r="E2">
-        <v>5.5576385000000004</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2" s="0" t="n">
+        <v>95.3168672</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5.5576385</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>999999</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>-999999</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="4" t="n">
         <v>999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0" t="n">
         <v>882</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="4" t="n">
         <v>3915</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>97.141161199999999</v>
-      </c>
-      <c r="E3">
-        <v>5.1823794000000003</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="0" t="n">
+        <v>97.1411612</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5.1823794</v>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>690</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0" t="n">
         <v>6192</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="N3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>98.677069200000005</v>
-      </c>
-      <c r="E4">
-        <v>3.5907933999999999</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" s="0" t="n">
+        <v>98.6770692</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.5907934</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>2825</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0" t="n">
         <v>7170</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>98.77534</v>
       </c>
-      <c r="E5">
-        <v>1.7474852000000001</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="0" t="n">
+        <v>1.7474852</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>2000</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>935</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0" t="n">
         <v>4411</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>99.058270500000006</v>
-      </c>
-      <c r="E6">
-        <v>2.9556306999999999</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D6" s="0" t="n">
+        <v>99.0582705</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.9556307</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>369</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0" t="n">
         <v>4948</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="5"/>
       <c r="I7" s="3"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="5"/>
       <c r="I8" s="3"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="5"/>
       <c r="I9" s="3"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="5"/>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="5"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="5"/>
       <c r="I12" s="3"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="5"/>
       <c r="I13" s="3"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="5"/>
       <c r="I14" s="3"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="5"/>
       <c r="I15" s="3"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="2"/>
       <c r="I16" s="3"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="5"/>
       <c r="I17" s="3"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="5"/>
       <c r="I19" s="3"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="5"/>
       <c r="I21" s="3"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="2"/>
       <c r="I22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="5"/>
       <c r="I23" s="3"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="2"/>
       <c r="I24" s="3"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="5"/>
       <c r="I25" s="3"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="5"/>
       <c r="I27" s="3"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="2"/>
       <c r="I28" s="3"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="5"/>
       <c r="I29" s="3"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="2"/>
       <c r="I30" s="3"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="5"/>
       <c r="I31" s="3"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="2"/>
       <c r="I32" s="3"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="5"/>
       <c r="I33" s="3"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="2"/>
       <c r="I34" s="3"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="5"/>
       <c r="I35" s="3"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="2"/>
       <c r="I36" s="3"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="5"/>
       <c r="I37" s="3"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="2"/>
       <c r="I38" s="3"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="5"/>
       <c r="I39" s="3"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="2"/>
       <c r="I40" s="3"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="5"/>
       <c r="I41" s="3"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="2"/>
       <c r="I42" s="3"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="5"/>
       <c r="I43" s="3"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="2"/>
       <c r="I44" s="3"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="5"/>
       <c r="I45" s="3"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="2"/>
       <c r="I46" s="3"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="5"/>
       <c r="I47" s="3"/>
       <c r="K47" s="4"/>
     </row>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.83984375" customWidth="1"/>
-    <col min="2" max="2" width="26.1015625" customWidth="1"/>
-    <col min="3" max="3" width="7.26171875" customWidth="1"/>
-    <col min="4" max="4" width="8.47265625" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.1015625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="10.26171875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.578125" customWidth="1"/>
-    <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.41796875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83984375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.15625" customWidth="1"/>
-    <col min="17" max="17" width="7.15625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6.578125" customWidth="1"/>
-    <col min="19" max="19" width="11.3125" customWidth="1"/>
-    <col min="1024" max="1024" width="11.5234375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="0.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,65 +1100,65 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="I2" s="6">
-        <f>Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
+      <c r="I2" s="6" t="n">
+        <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <f>Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
+      <c r="K2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
+      <c r="N2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="R2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
@@ -1387,7 +1170,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
@@ -1399,7 +1182,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
@@ -1411,7 +1194,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -1423,7 +1206,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -1435,7 +1218,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1447,7 +1230,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -1459,7 +1242,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1471,7 +1254,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1483,7 +1266,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1495,7 +1278,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1507,7 +1290,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -1519,7 +1302,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -1531,7 +1314,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -1543,7 +1326,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -1555,7 +1338,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -1567,7 +1350,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -1579,7 +1362,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -1591,7 +1374,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -1603,7 +1386,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
@@ -1615,7 +1398,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="7"/>
@@ -1627,7 +1410,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="7"/>
@@ -1639,7 +1422,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="7"/>
@@ -1651,7 +1434,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="7"/>
@@ -1663,7 +1446,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
@@ -1675,7 +1458,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
@@ -1687,7 +1470,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="7"/>
@@ -1699,7 +1482,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="7"/>
@@ -1711,7 +1494,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
@@ -1723,7 +1506,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="7"/>
@@ -1735,7 +1518,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="7"/>
@@ -1747,7 +1530,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="7"/>
@@ -1759,7 +1542,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
@@ -1771,7 +1554,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="7"/>
@@ -1783,7 +1566,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -1795,7 +1578,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="7"/>
@@ -1807,7 +1590,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="7"/>
@@ -1819,7 +1602,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="7"/>
@@ -1831,7 +1614,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="7"/>
@@ -1843,7 +1626,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="7"/>
@@ -1855,7 +1638,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="7"/>
@@ -1867,7 +1650,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -1879,7 +1662,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="7"/>
@@ -1891,7 +1674,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="7"/>
@@ -1903,7 +1686,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="7"/>
@@ -1915,7 +1698,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
@@ -1927,7 +1710,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="7"/>
@@ -1939,7 +1722,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="7"/>
@@ -1951,7 +1734,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="7"/>
@@ -1963,7 +1746,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
@@ -1975,7 +1758,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="7"/>
@@ -1987,7 +1770,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="7"/>
@@ -1999,7 +1782,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="7"/>
@@ -2011,7 +1794,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -2023,7 +1806,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="7"/>
@@ -2035,7 +1818,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="7"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="7"/>
@@ -2047,7 +1830,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="7"/>
@@ -2059,7 +1842,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="7"/>
@@ -2071,7 +1854,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="7"/>
@@ -2083,7 +1866,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="7"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="7"/>
@@ -2095,7 +1878,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="7"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2114,7 +1897,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2133,7 +1916,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2152,7 +1935,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -2171,7 +1954,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -2190,7 +1973,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2209,7 +1992,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -2228,7 +2011,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -2247,7 +2030,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="7"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
       <c r="D71" s="11"/>
@@ -2266,7 +2049,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="7"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2285,7 +2068,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="7"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2304,7 +2087,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="7"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2323,7 +2106,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2342,7 +2125,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="7"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2361,7 +2144,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="7"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2380,7 +2163,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="7"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2399,7 +2182,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="7"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2418,7 +2201,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="7"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2437,7 +2220,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="7"/>
     </row>
-    <row r="81" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="7"/>
@@ -2449,7 +2232,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="7"/>
     </row>
-    <row r="82" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="7"/>
@@ -2461,7 +2244,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="7"/>
     </row>
-    <row r="83" spans="9:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="7"/>
@@ -2473,292 +2256,686 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="7"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.1015625" customWidth="1"/>
-    <col min="14" max="14" width="10.68359375" customWidth="1"/>
-    <col min="15" max="15" width="7.41796875" customWidth="1"/>
-    <col min="17" max="17" width="9.26171875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-      <c r="I3">
-        <v>1000</v>
-      </c>
-      <c r="J3">
-        <v>1000</v>
-      </c>
-      <c r="K3">
-        <v>1000</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3000</v>
-      </c>
-      <c r="C4">
-        <v>3000</v>
-      </c>
-      <c r="D4">
-        <v>3000</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4">
-        <v>3000</v>
-      </c>
-      <c r="G4">
-        <v>3000</v>
-      </c>
-      <c r="H4">
-        <v>3000</v>
-      </c>
-      <c r="I4">
-        <v>3000</v>
-      </c>
-      <c r="J4">
-        <v>3000</v>
-      </c>
-      <c r="K4">
-        <v>3000</v>
-      </c>
-      <c r="L4">
-        <v>3000</v>
-      </c>
-      <c r="M4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2000</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5">
-        <v>2000</v>
-      </c>
-      <c r="F5">
-        <v>2000</v>
-      </c>
-      <c r="G5">
-        <v>2000</v>
-      </c>
-      <c r="H5">
-        <v>2000</v>
-      </c>
-      <c r="I5">
-        <v>2000</v>
-      </c>
-      <c r="J5">
-        <v>2000</v>
-      </c>
-      <c r="K5">
-        <v>2000</v>
-      </c>
-      <c r="L5">
-        <v>2000</v>
-      </c>
-      <c r="M5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1500</v>
-      </c>
-      <c r="C6">
-        <v>1500</v>
-      </c>
-      <c r="D6">
-        <v>1500</v>
-      </c>
-      <c r="E6">
-        <v>1500</v>
-      </c>
-      <c r="F6">
-        <v>1500</v>
-      </c>
-      <c r="G6">
-        <v>1500</v>
-      </c>
-      <c r="H6">
-        <v>1500</v>
-      </c>
-      <c r="I6">
-        <v>1500</v>
-      </c>
-      <c r="J6">
-        <v>1500</v>
-      </c>
-      <c r="K6">
-        <v>1500</v>
-      </c>
-      <c r="L6">
-        <v>1500</v>
-      </c>
-      <c r="M6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q16" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q147"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011179AFD6B249C47A3A85EFC187CA11D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04becffab9a2dbef63dcf0df7936b7a2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f42fe88e-f768-4626-a6cf-a26f783e7616" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="518f2508b308e1d4741e71cb3528ee4b" ns3:_="">
+    <xsd:import namespace="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f42fe88e-f768-4626-a6cf-a26f783e7616" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9F2A54B-1AF4-4DDF-9BD7-7F5345D3E7CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4761B902-1DB3-430A-B37B-14956FF5DCEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1681FE4-2173-40A4-B375-DA2284BB9929}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test/B.xlsx
+++ b/test/B.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -149,6 +149,48 @@
   </si>
   <si>
     <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column2</t>
   </si>
 </sst>
 </file>
@@ -444,20 +486,20 @@
   <autoFilter ref="A1:O47"/>
   <tableColumns count="15">
     <tableColumn id="1" name="point"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="2" name="1"/>
+    <tableColumn id="3" name="2"/>
+    <tableColumn id="4" name="3"/>
+    <tableColumn id="5" name="4"/>
+    <tableColumn id="6" name="5"/>
+    <tableColumn id="7" name="6"/>
+    <tableColumn id="8" name="7"/>
+    <tableColumn id="9" name="8"/>
+    <tableColumn id="10" name="9"/>
+    <tableColumn id="11" name="10"/>
+    <tableColumn id="12" name="11"/>
+    <tableColumn id="13" name="12"/>
+    <tableColumn id="14" name="Column1"/>
+    <tableColumn id="15" name="Column2"/>
   </tableColumns>
 </table>
 </file>
@@ -467,13 +509,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -487,7 +529,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -575,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -619,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -663,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -707,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -751,252 +793,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="5"/>
       <c r="I7" s="3"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="5"/>
       <c r="I8" s="3"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="5"/>
       <c r="I9" s="3"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="5"/>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="5"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="5"/>
       <c r="I12" s="3"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="5"/>
       <c r="I13" s="3"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="5"/>
       <c r="I14" s="3"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="5"/>
       <c r="I15" s="3"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="2"/>
       <c r="I16" s="3"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="5"/>
       <c r="I17" s="3"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="5"/>
       <c r="I19" s="3"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="5"/>
       <c r="I21" s="3"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="2"/>
       <c r="I22" s="3"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="5"/>
       <c r="I23" s="3"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="2"/>
       <c r="I24" s="3"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="5"/>
       <c r="I25" s="3"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="5"/>
       <c r="I27" s="3"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="2"/>
       <c r="I28" s="3"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="5"/>
       <c r="I29" s="3"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="2"/>
       <c r="I30" s="3"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="5"/>
       <c r="I31" s="3"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="2"/>
       <c r="I32" s="3"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="5"/>
       <c r="I33" s="3"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="2"/>
       <c r="I34" s="3"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="5"/>
       <c r="I35" s="3"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="2"/>
       <c r="I36" s="3"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="5"/>
       <c r="I37" s="3"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="2"/>
       <c r="I38" s="3"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="5"/>
       <c r="I39" s="3"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="2"/>
       <c r="I40" s="3"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="5"/>
       <c r="I41" s="3"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="2"/>
       <c r="I42" s="3"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="5"/>
       <c r="I43" s="3"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="2"/>
       <c r="I44" s="3"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="5"/>
       <c r="I45" s="3"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="2"/>
       <c r="I46" s="3"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="5"/>
       <c r="I47" s="3"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1016,20 +1017,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="0.13"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="0.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
@@ -1040,11 +1041,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1155,10 +1156,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
@@ -1170,7 +1171,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
@@ -1182,7 +1183,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
@@ -1194,7 +1195,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -1206,7 +1207,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -1218,7 +1219,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1230,7 +1231,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -1242,7 +1243,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1254,7 +1255,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1266,7 +1267,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1278,7 +1279,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1290,7 +1291,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -1302,7 +1303,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -1314,7 +1315,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -1326,7 +1327,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -1338,7 +1339,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -1350,7 +1351,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -1362,7 +1363,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -1374,7 +1375,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -1386,7 +1387,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
@@ -1398,7 +1399,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="7"/>
@@ -1410,7 +1411,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="7"/>
@@ -1422,7 +1423,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="7"/>
@@ -1434,7 +1435,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="7"/>
@@ -1446,7 +1447,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
@@ -1458,7 +1459,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
@@ -1470,7 +1471,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="7"/>
@@ -1482,7 +1483,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="7"/>
@@ -1494,7 +1495,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
@@ -1506,7 +1507,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="7"/>
@@ -1518,7 +1519,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="7"/>
@@ -1530,7 +1531,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="7"/>
@@ -1542,7 +1543,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
@@ -1554,7 +1555,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="7"/>
@@ -1566,7 +1567,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -1578,7 +1579,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="7"/>
@@ -1590,7 +1591,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="7"/>
@@ -1602,7 +1603,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="7"/>
@@ -1614,7 +1615,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="7"/>
@@ -1626,7 +1627,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="7"/>
@@ -1638,7 +1639,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="7"/>
@@ -1650,7 +1651,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -1662,7 +1663,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="7"/>
@@ -1674,7 +1675,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="7"/>
@@ -1686,7 +1687,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="7"/>
@@ -1698,7 +1699,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="7"/>
@@ -1710,7 +1711,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="7"/>
@@ -1722,7 +1723,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="7"/>
@@ -1734,7 +1735,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="7"/>
@@ -1746,7 +1747,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
@@ -1758,7 +1759,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="7"/>
@@ -1770,7 +1771,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="7"/>
@@ -1782,7 +1783,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="7"/>
@@ -1794,7 +1795,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -1806,7 +1807,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="7"/>
@@ -1818,7 +1819,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="7"/>
@@ -1830,7 +1831,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="7"/>
@@ -1842,7 +1843,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="7"/>
@@ -1854,7 +1855,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="7"/>
@@ -1866,7 +1867,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="7"/>
@@ -1878,7 +1879,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -1897,7 +1898,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -1916,7 +1917,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -1935,7 +1936,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -1954,7 +1955,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -1973,7 +1974,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -1992,7 +1993,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -2011,7 +2012,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -2030,7 +2031,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
       <c r="D71" s="11"/>
@@ -2049,7 +2050,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2068,7 +2069,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2087,7 +2088,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="7"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2106,7 +2107,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2125,7 +2126,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="7"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2144,7 +2145,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2163,7 +2164,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="7"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2182,7 +2183,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2201,7 +2202,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2220,7 +2221,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="7"/>
@@ -2232,7 +2233,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="7"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="7"/>
@@ -2244,7 +2245,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="7"/>
@@ -2256,7 +2257,6 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="7"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2279,10 +2279,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2292,7 +2292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
@@ -2319,63 +2319,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q147"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2580,149 +2586,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2735,207 +2601,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011179AFD6B249C47A3A85EFC187CA11D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04becffab9a2dbef63dcf0df7936b7a2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f42fe88e-f768-4626-a6cf-a26f783e7616" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="518f2508b308e1d4741e71cb3528ee4b" ns3:_="">
-    <xsd:import namespace="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f42fe88e-f768-4626-a6cf-a26f783e7616" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9F2A54B-1AF4-4DDF-9BD7-7F5345D3E7CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4761B902-1DB3-430A-B37B-14956FF5DCEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1681FE4-2173-40A4-B375-DA2284BB9929}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f42fe88e-f768-4626-a6cf-a26f783e7616"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>